--- a/data/income_statement/1digit/size/B_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/B_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>B-Mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>B-Mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,896 +841,1011 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2238777.98499</v>
+        <v>2430774.35092</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2928419.4088</v>
+        <v>3093313.04709</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3554258.55092</v>
+        <v>3787006.00231</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4063992.156690001</v>
+        <v>4457732.112910001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5212951.710199999</v>
+        <v>5581858.430450001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5689006.88436</v>
+        <v>6058117.734650001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5500817.011489999</v>
+        <v>6004393.758219999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6564624.08859</v>
+        <v>7118857.205979999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8023688.853200001</v>
+        <v>8733541.88057</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12695431.35447</v>
+        <v>12392119.97943</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10598481.07508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11271294.55716</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11977752.143</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1861100.23419</v>
+        <v>1995890.74109</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2451874.555149999</v>
+        <v>2538716.3188</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3017430.2513</v>
+        <v>3149313.7369</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3416550.58222</v>
+        <v>3682783.39523</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4359329.008340001</v>
+        <v>4599658.8232</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4744896.45562</v>
+        <v>4978420.536520001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4691001.23299</v>
+        <v>5005276.73874</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5641387.50004</v>
+        <v>5990768.20381</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6800389.786999999</v>
+        <v>7289139.243220001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10105270.53705</v>
+        <v>9356640.677269999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8013973.73066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8564520.49017</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9542262.509</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>316272.70366</v>
+        <v>360364.43673</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>411622.93087</v>
+        <v>489542.2769899999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>458635.11027</v>
+        <v>556468.70479</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>529549.5664799999</v>
+        <v>640185.62712</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>718897.16139</v>
+        <v>839923.39382</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>781743.5278299999</v>
+        <v>899640.54889</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>656515.5664199999</v>
+        <v>841531.37116</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>652731.5753299999</v>
+        <v>860457.20464</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>936757.3167800001</v>
+        <v>1140607.06276</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2058855.65651</v>
+        <v>2495626.82662</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2129201.58038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2249374.27181</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1975054.578</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>61405.04714</v>
+        <v>74519.1731</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>64921.92278</v>
+        <v>65054.4513</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>78193.18935000002</v>
+        <v>81223.56061999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>117892.00799</v>
+        <v>134763.09056</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>134725.54047</v>
+        <v>142276.21343</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>162366.90091</v>
+        <v>180056.64924</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>153300.21208</v>
+        <v>157585.64832</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>270505.01322</v>
+        <v>267631.79753</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>286541.7494199999</v>
+        <v>303795.57459</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>531305.16091</v>
+        <v>539852.4755400001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>455305.76404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>457399.79518</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>460435.056</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>19644.27768</v>
+        <v>28476.02615</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>18337.59496</v>
+        <v>30671.99226</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>16385.3678</v>
+        <v>33756.62742</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>23012.99486</v>
+        <v>44022.25447000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>39023.52513</v>
+        <v>60714.03565</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>34729.30431</v>
+        <v>65827.51976</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>29276.54995</v>
+        <v>29442.79024999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>67292.03086</v>
+        <v>91638.36683</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>72811.05833999999</v>
+        <v>89578.45767999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1311918.28969</v>
+        <v>158998.25483</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>112611.22798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>115589.06886</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>209974.502</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4954.61387</v>
+        <v>6004.44544</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9036.14654</v>
+        <v>10491.4018</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>11174.55692</v>
+        <v>10893.76861</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>14369.28254</v>
+        <v>17944.70698</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>21377.6427</v>
+        <v>20951.69487</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>21668.48943</v>
+        <v>15715.09825</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>18508.52778</v>
+        <v>15344.28709</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>56885.40027000001</v>
+        <v>72279.51925999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>61196.14486</v>
+        <v>70145.83093000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1255145.21286</v>
+        <v>83584.05604</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>62351.48939999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>64878.43539</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>142169.34</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1963.49656</v>
+        <v>3468.86826</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3740.155990000001</v>
+        <v>4266.183150000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2549.86173</v>
+        <v>2700.80475</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5913.428550000001</v>
+        <v>9891.749489999998</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7799.84385</v>
+        <v>5203.243869999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6125.83146</v>
+        <v>15227.10145</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>5554.60377</v>
+        <v>4947.39324</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>5525.874610000001</v>
+        <v>8488.46097</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6259.72235</v>
+        <v>7946.545899999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>7573.669490000001</v>
+        <v>7206.61376</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>15991.37418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13053.88854</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>37424.444</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>12726.16725</v>
+        <v>19002.71245</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5561.29243</v>
+        <v>15914.40731</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2660.94915</v>
+        <v>20162.05406</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2730.28377</v>
+        <v>16185.798</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>9846.038579999999</v>
+        <v>34559.09690999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6934.98342</v>
+        <v>34885.32006000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5213.4184</v>
+        <v>9151.109920000003</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4880.755980000001</v>
+        <v>10870.3866</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5355.191130000001</v>
+        <v>11486.08085</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>49199.40734000001</v>
+        <v>68207.58503</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>34268.3644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>37656.74493</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>30380.718</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2219133.70731</v>
+        <v>2402298.32477</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2910081.813839999</v>
+        <v>3062641.05483</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3537873.18312</v>
+        <v>3753249.374890001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4040979.161830001</v>
+        <v>4413709.85844</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5173928.18507</v>
+        <v>5521144.394799999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5654277.580049999</v>
+        <v>5992290.214889999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5471540.46154</v>
+        <v>5974950.967970002</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6497332.05773</v>
+        <v>7027218.839150001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>7950877.794860001</v>
+        <v>8643963.42289</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11383513.06478</v>
+        <v>12233121.7246</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10485869.8471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11155705.4883</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11767777.641</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1710455.61398</v>
+        <v>1770217.06712</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2242845.85979</v>
+        <v>2304922.7298</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2782506.28535</v>
+        <v>2938875.53977</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3176502.86956</v>
+        <v>3422680.41096</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4092921.24671</v>
+        <v>4257230.3129</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4469749.4496</v>
+        <v>4646000.03725</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4357062.327260001</v>
+        <v>4641934.053530001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5152041.550349999</v>
+        <v>5473713.132339999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6184962.435339999</v>
+        <v>6730933.696140001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8392355.59271</v>
+        <v>8765015.115269998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7750764.034720001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8026436.390339999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8643927.476</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1092351.96605</v>
+        <v>1123437.91365</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1305824.18423</v>
+        <v>1384375.52183</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1663971.86296</v>
+        <v>1758765.01004</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2050237.47616</v>
+        <v>2136212.21516</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2615122.67799</v>
+        <v>2815939.2539</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2937674.67615</v>
+        <v>3103656.78571</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2896739.83302</v>
+        <v>3062231.95278</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3286099.63385</v>
+        <v>3530520.254420001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3836882.16497</v>
+        <v>4223423.09724</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5633120.976489999</v>
+        <v>5740402.257680001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5202154.599859999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5486165.114680001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>5245298.94</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>230766.16392</v>
+        <v>240287.84902</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>398019.5034700001</v>
+        <v>379169.57936</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>387610.03018</v>
+        <v>421272.1731599999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>436562.65921</v>
+        <v>483166.58071</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>543981.2461399999</v>
+        <v>550341.1807</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>606158.36431</v>
+        <v>603149.0684099999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>558541.31255</v>
+        <v>632056.73601</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>683608.8845899999</v>
+        <v>715587.1608299999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>807340.1680500001</v>
+        <v>904119.18206</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1081214.7137</v>
+        <v>1072347.72617</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1091411.17163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>991918.0122700001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1937181.141</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>369169.58426</v>
+        <v>386386.52753</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>518954.10006</v>
+        <v>527748.88055</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>715349.2019099999</v>
+        <v>730879.0059</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>663455.3668900001</v>
+        <v>761908.7285999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>919909.6084000001</v>
+        <v>873598.0728099999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>887857.0507500001</v>
+        <v>899995.676</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>874378.09931</v>
+        <v>919958.43299</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1111873.50347</v>
+        <v>1163352.09321</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1448575.84709</v>
+        <v>1501984.55764</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1534333.34456</v>
+        <v>1765818.68363</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1321627.85577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1400847.44102</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1368729.617</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>18167.89975</v>
+        <v>20104.77692</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>20048.07203</v>
+        <v>13628.74806</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>15575.1903</v>
+        <v>27959.35067</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>26247.3673</v>
+        <v>41392.88649</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13907.71418</v>
+        <v>17351.80549</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>38059.35839</v>
+        <v>39198.50713000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>27403.08238</v>
+        <v>27686.93175</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>70459.52843999999</v>
+        <v>64253.62387999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>92164.25523000001</v>
+        <v>101406.8592</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>143686.55796</v>
+        <v>186446.44779</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>135570.40746</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>147505.82237</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>92717.77800000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>508678.09333</v>
+        <v>632081.25765</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>667235.9540499999</v>
+        <v>757718.3250299998</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>755366.8977700002</v>
+        <v>814373.8351200001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>864476.29227</v>
+        <v>991029.44748</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1081006.93836</v>
+        <v>1263914.0819</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1184528.13045</v>
+        <v>1346290.17764</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1114478.13428</v>
+        <v>1333016.91444</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1345290.50738</v>
+        <v>1553505.70681</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1765915.35952</v>
+        <v>1913029.72675</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2991157.47207</v>
+        <v>3468106.60933</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2735105.81238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3129269.097959999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3123850.165</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>361596.13098</v>
+        <v>418880.71418</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>420173.2362</v>
+        <v>465954.07197</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>503354.22192</v>
+        <v>565043.0045800001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>590023.5387799999</v>
+        <v>702522.80478</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>722899.79985</v>
+        <v>806774.5269299999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>789893.91505</v>
+        <v>868392.28137</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>810920.7884699999</v>
+        <v>894243.6921399999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>926782.10445</v>
+        <v>1032715.1653</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1087673.72594</v>
+        <v>1103703.87381</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1758345.79354</v>
+        <v>1822593.24934</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1747788.47183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1771734.34086</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1694856.441</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>4815.766989999999</v>
+        <v>13651.23318</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2782.486</v>
+        <v>6803.38355</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>10815.0336</v>
+        <v>36823.29530999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7618.517019999999</v>
+        <v>14127.88954</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8511.66014</v>
+        <v>23670.50592</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6961.36497</v>
+        <v>11324.90545</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4722.20241</v>
+        <v>2041.49443</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>26693.74539</v>
+        <v>34101.40786</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>41047.84866</v>
+        <v>40246.62071</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>189612.67511</v>
+        <v>178008.45161</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>205379.5612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>213516.03587</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>118006.164</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>174101.61586</v>
+        <v>182954.1667</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>208739.49155</v>
+        <v>222820.31094</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>221912.06034</v>
+        <v>228395.3955</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>258101.52519</v>
+        <v>282241.69956</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>337636.1291</v>
+        <v>371312.73157</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>364768.52378</v>
+        <v>401161.72664</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>328793.17709</v>
+        <v>372875.24301</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>358565.7464</v>
+        <v>399895.10212</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>414593.3991900001</v>
+        <v>443496.4844600001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>702946.54619</v>
+        <v>727297.09023</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>685260.7385699999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>713378.5199200001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>653754.987</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>182678.7481300001</v>
+        <v>222275.3143</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>208651.25865</v>
+        <v>236330.37748</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>270627.12798</v>
+        <v>299824.3137700001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>324303.49657</v>
+        <v>406153.21568</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>376752.01061</v>
+        <v>411791.28944</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>418164.0263</v>
+        <v>455905.64928</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>477405.40897</v>
+        <v>519326.9547</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>541522.6126600001</v>
+        <v>598718.6553199999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>632032.4780899999</v>
+        <v>619960.76864</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>865786.57224</v>
+        <v>917287.7074999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>857148.1720599999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>844839.78507</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>923095.29</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>147081.96235</v>
+        <v>213200.54347</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>247062.71785</v>
+        <v>291764.25306</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>252012.67585</v>
+        <v>249330.83054</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>274452.75349</v>
+        <v>288506.6427</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>358107.13851</v>
+        <v>457139.55497</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>394634.2154</v>
+        <v>477897.89627</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>303557.34581</v>
+        <v>438773.2223</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>418508.40293</v>
+        <v>520790.54151</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>678241.6335800001</v>
+        <v>809325.85294</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1232811.67853</v>
+        <v>1645513.35999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>987317.3405500001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1357534.7571</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1428993.724</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>78043.6496</v>
+        <v>150788.84916</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>72890.45705000001</v>
+        <v>164866.7464</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>127741.24002</v>
+        <v>360282.0685</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>94789.48415</v>
+        <v>239298.8106</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>199533.44922</v>
+        <v>230571.20013</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>200561.4612799999</v>
+        <v>260369.13739</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>253768.62216</v>
+        <v>422024.7967899999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>255056.26327</v>
+        <v>566756.1900699999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>359179.79912</v>
+        <v>368629.2905599999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1901554.83064</v>
+        <v>2262949.12183</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>830306.2469400001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1221969.46749</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3341156.678</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2940.00407</v>
+        <v>21888.14946</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3566.16279</v>
+        <v>16192.52536</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4370.38513</v>
+        <v>1519.02878</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1688.77274</v>
+        <v>3545.2002</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>35011.24741</v>
+        <v>9552.71566</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5963.792759999999</v>
+        <v>15898.81773</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4430.51198</v>
+        <v>4194.85238</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3774.84792</v>
+        <v>1953.51994</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>25297.445</v>
+        <v>8905.62529</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>18256.25269</v>
+        <v>3236.79001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>20734.53441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>6898.108179999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>830.17</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>5488.85941</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>332.55594</v>
+        <v>14549.14796</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>238.76772</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>6920.78221</v>
+        <v>7497.81668</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>548.71537</v>
+        <v>1898.24942</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>684.6385299999999</v>
+        <v>684.52273</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>270.2740899999999</v>
+        <v>270.26677</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>0.25658</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>140.83198</v>
@@ -1838,211 +1854,241 @@
         <v>3505.50372</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>3857.52293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>152312.82027</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1385.882</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>10896.69679</v>
+        <v>17849.97335</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9076.748810000001</v>
+        <v>12606.90345</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>13193.88841</v>
+        <v>16541.38747</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>17440.26332</v>
+        <v>28172.31706</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>17289.39958</v>
+        <v>29827.16525</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>27813.79552</v>
+        <v>45158.17142000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>25772.13529</v>
+        <v>39079.82514000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>34552.97158999999</v>
+        <v>47621.95804</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>46986.17181</v>
+        <v>37136.56178</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>96041.33548999998</v>
+        <v>203158.01263</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>101527.12332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>197498.50526</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>76180.186</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>854.66733</v>
+        <v>820.4303400000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>34.62496</v>
+        <v>10.59098</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>43.41595</v>
+        <v>28.14622</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>46.01005</v>
+        <v>9279.430209999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>261.64903</v>
+        <v>375.15399</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>71.17144</v>
+        <v>27.11713</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>148.07891</v>
+        <v>1018.32034</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>508.67705</v>
+        <v>4543.377320000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1278.23924</v>
+        <v>1245.88564</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3097.55771</v>
+        <v>13929.64718</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>175.24969</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>8697.337230000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1711.067</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3911.77563</v>
+        <v>3518.66387</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1299.60695</v>
+        <v>1353.96201</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>212.55266</v>
+        <v>3617.11018</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>811.6663600000001</v>
+        <v>1692.67417</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1841.7253</v>
+        <v>1486.80986</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6003.19359</v>
+        <v>3371.86583</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>12987.32226</v>
+        <v>2676.54493</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1631.21943</v>
+        <v>2405.25285</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2818.01033</v>
+        <v>1222.55999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>29418.85774</v>
+        <v>5593.31592</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>31572.95651</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4055.79407</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8554.375</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>743.36576</v>
+        <v>548.9920499999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>560.6885500000001</v>
+        <v>921.25096</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1532.8669</v>
+        <v>1538.70119</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2472.44534</v>
+        <v>3468.30358</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>143.96093</v>
+        <v>384.67797</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>259.51479</v>
+        <v>8913.605030000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1166.91853</v>
+        <v>4992.027720000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1282.20741</v>
+        <v>705.28003</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>800.51629</v>
+        <v>2903.63234</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>14787.56025</v>
+        <v>16217.46327</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5391.15849</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1168.85677</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>202325.658</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>40917.57075</v>
+        <v>79026.33718999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>41620.07059</v>
+        <v>98997.34383000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>76643.90632000001</v>
+        <v>249413.20543</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>40951.88819</v>
+        <v>162393.37895</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>111221.23251</v>
+        <v>138484.22787</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>131213.33479</v>
+        <v>143031.56275</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>174737.63833</v>
+        <v>331294.25782</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>167368.70106</v>
+        <v>454864.62647</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>199020.69039</v>
+        <v>260025.56504</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1626893.59588</v>
+        <v>1902624.07917</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>554901.8450900001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>736961.1884100001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2931886.399</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>52.68022</v>
+        <v>49.04246</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2051,16 +2097,16 @@
         <v>7.399010000000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>96.6117</v>
+        <v>94.58978999999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>140.58822</v>
+        <v>14999.6811</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>680.39144</v>
+        <v>8791.16264</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>115.32857</v>
+        <v>322.97222</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>68.61650999999999</v>
@@ -2074,35 +2120,40 @@
       <c r="M33" s="48" t="n">
         <v>1235.22918</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1219.601</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>111.82861</v>
+        <v>17.86702</v>
       </c>
       <c r="E34" s="48" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="F34" s="48" t="n">
+        <v>0.04276</v>
+      </c>
+      <c r="G34" s="48" t="n">
+        <v>0.01106</v>
+      </c>
+      <c r="H34" s="48" t="n">
         <v>0</v>
-      </c>
-      <c r="F34" s="48" t="n">
-        <v>0.00405</v>
-      </c>
-      <c r="G34" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="48" t="n">
-        <v>115.88046</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>4.42458</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>110.83571</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>1888.16235</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>229.242</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>17726.88905</v>
+        <v>21598.40103</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>16288.16985</v>
+        <v>20217.15483</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>31498.05792</v>
+        <v>87378.32233</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>24361.04019</v>
+        <v>23155.0572</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>33074.93087</v>
+        <v>33562.50795000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>27755.74796</v>
+        <v>34492.31213000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>34135.98962000001</v>
+        <v>38171.30489</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>45758.18659</v>
+        <v>54593.30233</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>82678.27205999999</v>
+        <v>56889.00648</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>107508.70316</v>
+        <v>112638.84593</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>109022.46497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>111253.46577</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>116834.098</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>72028.46165000001</v>
+        <v>110470.79911</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>61897.41079000001</v>
+        <v>124040.2862</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>106082.20291</v>
+        <v>371424.78379</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>55919.93576000001</v>
+        <v>159191.90077</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2065196.21317</v>
+        <v>267525.62584</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>239164.11086</v>
+        <v>208024.98819</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>350978.67627</v>
+        <v>431681.86012</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>343509.19161</v>
+        <v>462069.2365700001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>348156.3128199999</v>
+        <v>328464.60666</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1783916.61405</v>
+        <v>2112053.13608</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>737560.00972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>821086.1115000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3066505.823</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1413.2549</v>
+        <v>1020.20972</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1137.88094</v>
+        <v>1280.35217</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1600.04087</v>
+        <v>1565.33244</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1033.37064</v>
+        <v>1053.89464</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1069.2095</v>
+        <v>1230.27511</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>595.34848</v>
+        <v>1021.56058</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>575.31137</v>
+        <v>3169.56342</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>695.5122699999999</v>
+        <v>842.74639</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>791.7236599999999</v>
+        <v>3666.89117</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2165.65065</v>
+        <v>2146.73238</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1861.9122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2330.35178</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1508.037</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>15071.92628</v>
+        <v>16558.90228</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4016.39962</v>
+        <v>5716.191630000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2020.3576</v>
+        <v>2548.79033</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3808.99688</v>
+        <v>5419.093409999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>11188.87315</v>
+        <v>11446.02337</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>9017.500249999999</v>
+        <v>13517.95342</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>16823.72064</v>
+        <v>11707.60529</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12865.32076</v>
+        <v>18435.24911</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>9321.936720000002</v>
+        <v>7355.98845</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>18334.09102</v>
+        <v>48234.00181</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>54222.83241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>26944.66669</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>12419.565</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>388.47227</v>
+        <v>356.45391</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>620.4621</v>
+        <v>259.88799</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1159.94583</v>
+        <v>889.56762</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>45.55243</v>
+        <v>180.67151</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2094.49638</v>
+        <v>2146.89903</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2321.58178</v>
+        <v>604.72551</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>114.2844</v>
+        <v>1779.06467</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>263.51503</v>
+        <v>658.39283</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>130.4381</v>
+        <v>2412.26229</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1230.23806</v>
+        <v>23813.00719</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>7692.73928</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>7688.00288</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3.302</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>40342.83697</v>
+        <v>77801.8177</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>40700.84499000001</v>
+        <v>98614.75175</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>83096.86017999999</v>
+        <v>315042.73594</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>37638.78995000001</v>
+        <v>126856.92286</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>177720.09399</v>
+        <v>239934.80887</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>166037.61359</v>
+        <v>152154.27965</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>286264.87455</v>
+        <v>346539.74133</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>298030.32959</v>
+        <v>418726.79878</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>265297.76701</v>
+        <v>283624.6539</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1660817.0972</v>
+        <v>1962883.01884</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>621140.08875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>727657.11147</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3010326.967</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>255.9226</v>
+        <v>4.466</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>244.56974</v>
@@ -2366,40 +2452,45 @@
         <v>86.74299999999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>2997.18629</v>
+        <v>281.34814</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>585.14225</v>
+        <v>16276.65422</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>5242.343400000001</v>
+        <v>8115.97327</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>640.62725</v>
+        <v>241.50726</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>130.61034</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2309.51194</v>
+        <v>2306.5111</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>1133.12661</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1219.084</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>142.68786</v>
+        <v>0.08762</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0</v>
+        <v>18.03088</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2411,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>20.85015</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>24.56596</v>
+        <v>0.00308</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>166.88849</v>
+        <v>645.10119</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>14556.04863</v>
+        <v>14728.9495</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>15034.56554</v>
+        <v>17924.4453</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>16371.51655</v>
+        <v>49526.84469999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>13306.48286</v>
+        <v>25594.57535</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1870126.35386</v>
+        <v>12486.27132</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>60606.92451</v>
+        <v>24449.81481</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>41937.29176000001</v>
+        <v>60369.91213999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>30989.32075</v>
+        <v>23164.53912</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>72316.9485</v>
+        <v>30629.09932</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>99060.02518</v>
+        <v>72669.86476</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>51509.31047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>55332.85207000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>41028.868</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>62418.75091999999</v>
+        <v>86942.86235000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>51185.42136</v>
+        <v>60869.74134000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>73082.86857000001</v>
+        <v>91199.24457000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>87352.18574000002</v>
+        <v>113289.41161</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>116627.33696</v>
+        <v>137653.7336</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>157799.48699</v>
+        <v>175839.03884</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>165386.04047</v>
+        <v>199388.1128</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>191654.40733</v>
+        <v>246985.40471</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>218904.88608</v>
+        <v>241413.21683</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>449993.5202199999</v>
+        <v>433246.71306</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>424738.99186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>542170.93009</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>398314.194</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>53099.2685</v>
+        <v>78864.12002</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>44593.58724999999</v>
+        <v>56494.39154</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>68908.91703999999</v>
+        <v>85128.7234</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>82445.12974999999</v>
+        <v>103530.03774</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>103961.78011</v>
+        <v>126600.4814</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>144292.96035</v>
+        <v>160530.42057</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>154803.71107</v>
+        <v>188299.76935</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>176497.4716</v>
+        <v>231102.31856</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>200100.90443</v>
+        <v>227942.96096</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>414900.16635</v>
+        <v>401027.80184</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>414390.2566199999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>485712.55172</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>366540.401</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>9319.48242</v>
+        <v>8078.74233</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>6591.834110000001</v>
+        <v>4375.349800000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4173.951529999999</v>
+        <v>6070.52117</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4907.05599</v>
+        <v>9759.373870000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>12665.55685</v>
+        <v>11053.2522</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>13506.52664</v>
+        <v>15308.61827</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>10582.3294</v>
+        <v>11088.34345</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>15156.93573</v>
+        <v>15883.08615</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>18803.98165</v>
+        <v>13470.25587</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>35093.35387</v>
+        <v>32218.91122</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>10348.73524</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>56458.37837000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>31773.793</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>90678.39938000002</v>
+        <v>166575.73117</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>206870.34275</v>
+        <v>271720.97192</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>200588.84439</v>
+        <v>146988.87068</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>225970.11614</v>
+        <v>255324.14092</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1624182.9624</v>
+        <v>282531.39566</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>198232.07883</v>
+        <v>354403.00663</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>40961.25122999996</v>
+        <v>229728.04617</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>138401.06726</v>
+        <v>378492.0902999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>470360.2338</v>
+        <v>608077.32001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>900456.3748999999</v>
+        <v>1363162.63268</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>655324.58591</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1216247.183</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1305330.385</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>47948.42019</v>
+        <v>30823.80315</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>32114.66653999999</v>
+        <v>24777.85966</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>67628.52581000001</v>
+        <v>44693.21007</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>66516.34474</v>
+        <v>51618.75430000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>54517.33840000001</v>
+        <v>80577.97277999998</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>93850.75417</v>
+        <v>85852.83694999998</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>104940.98399</v>
+        <v>144518.73499</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>95241.99177000001</v>
+        <v>104555.60621</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>135663.70409</v>
+        <v>147510.61251</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>147065.84581</v>
+        <v>119810.36424</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>162462.79636</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>181874.54868</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>113747.388</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>632.3679000000001</v>
+        <v>251.19702</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1107.61491</v>
+        <v>320.51568</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2460.0052</v>
+        <v>982.73505</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>578.35649</v>
+        <v>1092.09708</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1214.18876</v>
+        <v>748.05211</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>273.19102</v>
+        <v>3679.98757</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2702.42569</v>
+        <v>5717.49434</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>695.95726</v>
+        <v>964.2669000000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1203.13451</v>
+        <v>1788.66407</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>814.5657599999998</v>
+        <v>1012.41299</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4539.10067</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5325.8117</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3862.027</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>47316.05229</v>
+        <v>30572.60613</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>31007.05162999999</v>
+        <v>24457.34398</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>65168.52061</v>
+        <v>43710.47502000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>65937.98824999999</v>
+        <v>50526.65722</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>53303.14964</v>
+        <v>79829.92066999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>93577.56315</v>
+        <v>82172.84938000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>102238.5583</v>
+        <v>138801.24065</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>94546.03451000001</v>
+        <v>103591.33931</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>134460.56958</v>
+        <v>145721.94844</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>146251.28005</v>
+        <v>118797.95125</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>157923.69569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>176548.73698</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>109885.361</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>46816.82071</v>
+        <v>57990.47409</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>46982.35004</v>
+        <v>53775.19626</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>199529.27002</v>
+        <v>233078.02568</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>69209.01336</v>
+        <v>100819.79956</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>82298.15430999998</v>
+        <v>78974.50138999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>160822.03509</v>
+        <v>156855.54078</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>119986.09807</v>
+        <v>104426.44882</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>201799.67122</v>
+        <v>250709.7903</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>105810.76438</v>
+        <v>144144.89918</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>245235.81785</v>
+        <v>356861.46134</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>172634.87441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>301002.28371</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>170766.503</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>11089.73685</v>
+        <v>6866.63067</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>9663.103730000001</v>
+        <v>4773.91948</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>7509.74839</v>
+        <v>15943.52932</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>12849.1199</v>
+        <v>38813.15234</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>15392.75551</v>
+        <v>20111.12781</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>20010.08927</v>
+        <v>36466.28092</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>26841.04765</v>
+        <v>25809.49521999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>24610.44988</v>
+        <v>43759.65871000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>16445.54457</v>
+        <v>44209.34488</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>53934.1099</v>
+        <v>159735.46901</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>50267.88711</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>191673.20876</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>77670.08900000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6553.12215</v>
+        <v>4690.37291</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5500.19923</v>
+        <v>2184.07772</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7060.497409999999</v>
+        <v>6258.892019999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4659.61231</v>
+        <v>14689.59069</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8378.42209</v>
+        <v>6181.685850000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4559.3887</v>
+        <v>5996.1573</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>8940.786209999998</v>
+        <v>5112.187029999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6138.20992</v>
+        <v>9190.52951</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>9529.246860000001</v>
+        <v>8400.657130000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>11171.07638</v>
+        <v>12491.43332</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10171.09937</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14836.15396</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>11878.273</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>29173.96171</v>
+        <v>46433.47051</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>31819.04708</v>
+        <v>46817.19906</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>184959.02422</v>
+        <v>210875.60434</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>51700.28114999999</v>
+        <v>47317.05653</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>58526.97671</v>
+        <v>52681.68773</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>136252.55712</v>
+        <v>114393.10256</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>84204.26420999999</v>
+        <v>73504.76657000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>171051.01142</v>
+        <v>197759.60208</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>79835.97295</v>
+        <v>91534.89717</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>180130.63157</v>
+        <v>184634.55901</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>112195.88793</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>94492.92099000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>81218.141</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>91809.99885999998</v>
+        <v>139409.06023</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>192002.65925</v>
+        <v>242723.63532</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>68688.10018000001</v>
+        <v>-41395.94493000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>223277.44752</v>
+        <v>206123.09566</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-1651963.77831</v>
+        <v>284134.8670499999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>131260.79791</v>
+        <v>283400.3027999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>25916.13715000004</v>
+        <v>269820.33234</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>31843.38780999997</v>
+        <v>232337.90621</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>500213.1735099999</v>
+        <v>611443.03334</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>802286.40286</v>
+        <v>1126111.53558</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>645152.50786</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1097119.44797</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1248311.27</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>34489.28483</v>
+        <v>41308.69951999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>46956.15342</v>
+        <v>55108.65442</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>56275.76343999999</v>
+        <v>58632.69007</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>53560.06065</v>
+        <v>60202.36987000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>69679.74367</v>
+        <v>79667.44977999998</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>70005.74763999999</v>
+        <v>85206.38928000002</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>73873.78933</v>
+        <v>99242.98716999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>70912.48066</v>
+        <v>111377.58192</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>109027.96539</v>
+        <v>123535.95807</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>221728.87014</v>
+        <v>291478.13444</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>173620.76498</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>206171.72104</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>243750.151</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>57320.71403000001</v>
+        <v>98100.36070999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>145046.50583</v>
+        <v>187614.9809</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>12412.33674</v>
+        <v>-100028.635</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>169717.38687</v>
+        <v>145920.72579</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-1721643.52198</v>
+        <v>204467.41727</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>61255.05026999996</v>
+        <v>198193.91352</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-47957.65218000002</v>
+        <v>170577.34517</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-39069.09284999998</v>
+        <v>120960.32429</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>391185.20812</v>
+        <v>487907.07527</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>580557.5327199999</v>
+        <v>834633.40114</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>471531.74288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>890947.7269300001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1004561.119</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>445</v>
+        <v>335</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>520</v>
+        <v>377</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>596</v>
+        <v>446</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>552</v>
+        <v>425</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>597</v>
+        <v>439</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>611</v>
+        <v>429</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>687</v>
+        <v>448</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>762</v>
+        <v>518</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>460</v>
+        <v>387</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>311</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>